--- a/Lista de cotejo Tercera entrega_OPENMARKET REV.xlsx
+++ b/Lista de cotejo Tercera entrega_OPENMARKET REV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lcaballero\2024\FMAT\FIS\TERCERA ENTREGA\OPENMARKET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F682F3-4CBE-4A3C-8E28-4809849774F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99590733-FBBB-4C8B-A02E-1183E62AD4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DBDBD91F-58B3-7D45-AEAB-8508DE984923}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DBDBD91F-58B3-7D45-AEAB-8508DE984923}"/>
   </bookViews>
   <sheets>
     <sheet name="Rúbirca con Evidencias-1ra" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,19 @@
     <sheet name="Notas" sheetId="3" r:id="rId4"/>
     <sheet name="Hoja2" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1478,42 +1487,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1582,6 +1555,42 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1993,30 +2002,30 @@
       <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
     <col min="5" max="5" width="2.5" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="2" customWidth="1"/>
-    <col min="8" max="11" width="10.59765625" customWidth="1"/>
+    <col min="8" max="11" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A1" s="70"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
       <c r="H2" s="36">
         <v>0</v>
       </c>
@@ -2030,11 +2039,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.2" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+    <row r="3" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="H3" s="38" t="s">
         <v>1</v>
       </c>
@@ -2049,10 +2058,10 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
     </row>
     <row r="5" spans="1:11">
       <c r="H5" s="14" t="s">
@@ -2062,7 +2071,7 @@
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="1:11" ht="16.2" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickBot="1">
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -2081,7 +2090,7 @@
       <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" ht="39" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="93" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2097,8 +2106,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="63.9" customHeight="1" thickBot="1">
-      <c r="B8" s="69"/>
+    <row r="8" spans="1:11" ht="63.95" customHeight="1" thickBot="1">
+      <c r="B8" s="93"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
@@ -2110,7 +2119,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="63" customHeight="1">
-      <c r="B9" s="69"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
@@ -2127,7 +2136,7 @@
       <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:11" ht="75" customHeight="1">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -2142,7 +2151,7 @@
       <c r="I11" s="53"/>
     </row>
     <row r="12" spans="1:11" ht="53.1" customHeight="1" thickBot="1">
-      <c r="B12" s="69"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2153,8 +2162,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="54.9" customHeight="1" thickBot="1">
-      <c r="B13" s="69"/>
+    <row r="13" spans="1:11" ht="54.95" customHeight="1" thickBot="1">
+      <c r="B13" s="93"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -2167,7 +2176,7 @@
       <c r="I13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="76.5" customHeight="1">
-      <c r="B14" s="69"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="15" t="s">
         <v>24</v>
       </c>
@@ -2179,11 +2188,11 @@
       </c>
       <c r="I14" s="56"/>
     </row>
-    <row r="15" spans="1:11" ht="16.2" thickBot="1">
+    <row r="15" spans="1:11" ht="16.5" thickBot="1">
       <c r="H15" s="60"/>
     </row>
-    <row r="16" spans="1:11" ht="81.900000000000006" customHeight="1" thickBot="1">
-      <c r="B16" s="69" t="s">
+    <row r="16" spans="1:11" ht="81.95" customHeight="1" thickBot="1">
+      <c r="B16" s="93" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -2200,7 +2209,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="59.1" customHeight="1">
-      <c r="B17" s="69"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="15" t="s">
         <v>29</v>
       </c>
@@ -2214,8 +2223,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="81.900000000000006" customHeight="1" thickBot="1">
-      <c r="B18" s="69"/>
+    <row r="18" spans="2:9" ht="81.95" customHeight="1" thickBot="1">
+      <c r="B18" s="93"/>
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
@@ -2227,8 +2236,8 @@
       </c>
       <c r="I18" s="56"/>
     </row>
-    <row r="19" spans="2:9" ht="37.799999999999997">
-      <c r="B19" s="69"/>
+    <row r="19" spans="2:9" ht="38.25">
+      <c r="B19" s="93"/>
       <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2240,11 +2249,11 @@
       </c>
       <c r="I19" s="56"/>
     </row>
-    <row r="20" spans="2:9" ht="16.2" thickBot="1">
+    <row r="20" spans="2:9" ht="16.5" thickBot="1">
       <c r="H20" s="60"/>
     </row>
-    <row r="21" spans="2:9" ht="63.6" thickBot="1">
-      <c r="B21" s="72" t="s">
+    <row r="21" spans="2:9" ht="77.25" thickBot="1">
+      <c r="B21" s="96" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -2257,8 +2266,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="25.2">
-      <c r="B22" s="72"/>
+    <row r="22" spans="2:9" ht="25.5">
+      <c r="B22" s="96"/>
       <c r="C22" s="27" t="s">
         <v>38</v>
       </c>
@@ -2270,7 +2279,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="36" customHeight="1" thickBot="1">
-      <c r="B23" s="72"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="20" t="s">
         <v>40</v>
       </c>
@@ -2284,8 +2293,8 @@
     <row r="24" spans="2:9">
       <c r="H24" s="60"/>
     </row>
-    <row r="25" spans="2:9" ht="24.6" thickBot="1">
-      <c r="B25" s="69" t="s">
+    <row r="25" spans="2:9" ht="36.75" thickBot="1">
+      <c r="B25" s="93" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -2301,8 +2310,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="24">
-      <c r="B26" s="69"/>
+    <row r="26" spans="2:9" ht="36">
+      <c r="B26" s="93"/>
       <c r="C26" s="24" t="s">
         <v>45</v>
       </c>
@@ -2355,34 +2364,34 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
     <col min="5" max="5" width="2.5" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="2" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="9" max="9" width="13.59765625" customWidth="1"/>
-    <col min="10" max="11" width="10.59765625" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="11" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A1" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
       <c r="H2" s="36">
         <v>0</v>
       </c>
@@ -2396,11 +2405,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.2" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+    <row r="3" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="H3" s="38" t="s">
         <v>1</v>
       </c>
@@ -2415,10 +2424,10 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
     </row>
     <row r="5" spans="1:11">
       <c r="H5" s="14" t="s">
@@ -2428,7 +2437,7 @@
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="1:11" ht="16.2" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickBot="1">
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -2467,7 +2476,7 @@
       <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:11" ht="68.099999999999994" customHeight="1" thickBot="1">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -2484,7 +2493,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="167.25" customHeight="1">
-      <c r="B10" s="69"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="15" t="s">
         <v>52</v>
       </c>
@@ -2501,8 +2510,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="156.6" thickBot="1">
-      <c r="B12" s="69" t="s">
+    <row r="12" spans="1:11" ht="142.5" thickBot="1">
+      <c r="B12" s="93" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -2519,7 +2528,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="183" customHeight="1">
-      <c r="B13" s="69"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="15" t="s">
         <v>57</v>
       </c>
@@ -2536,7 +2545,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="156">
+    <row r="14" spans="1:11" ht="157.5">
       <c r="B14" s="14"/>
       <c r="C14" s="50" t="s">
         <v>59</v>
@@ -2551,9 +2560,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.2" thickBot="1"/>
+    <row r="15" spans="1:11" ht="16.5" thickBot="1"/>
     <row r="16" spans="1:11" ht="171" customHeight="1" thickBot="1">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="93" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -2573,7 +2582,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="71.099999999999994" customHeight="1">
-      <c r="B17" s="69"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="15" t="s">
         <v>29</v>
       </c>
@@ -2593,8 +2602,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="81.900000000000006" customHeight="1" thickBot="1">
-      <c r="B18" s="69"/>
+    <row r="18" spans="2:10" ht="81.95" customHeight="1" thickBot="1">
+      <c r="B18" s="93"/>
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
@@ -2608,8 +2617,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="62.4">
-      <c r="B19" s="69"/>
+    <row r="19" spans="2:10" ht="63">
+      <c r="B19" s="93"/>
       <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2623,9 +2632,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="16.2" thickBot="1"/>
-    <row r="21" spans="2:10" ht="187.8" thickBot="1">
-      <c r="B21" s="72" t="s">
+    <row r="20" spans="2:10" ht="16.5" thickBot="1"/>
+    <row r="21" spans="2:10" ht="174" thickBot="1">
+      <c r="B21" s="96" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -2642,14 +2651,14 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="173.25" customHeight="1">
-      <c r="B22" s="72"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="97" t="s">
         <v>94</v>
       </c>
       <c r="H22" s="41">
@@ -2657,14 +2666,14 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="36" customHeight="1" thickBot="1">
-      <c r="B23" s="72"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="97"/>
       <c r="H23" s="42">
         <v>3</v>
       </c>
@@ -2672,8 +2681,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="156.6" thickBot="1">
-      <c r="B25" s="69" t="s">
+    <row r="25" spans="2:10" ht="158.25" thickBot="1">
+      <c r="B25" s="93" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -2689,8 +2698,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="156">
-      <c r="B26" s="69"/>
+    <row r="26" spans="2:10" ht="157.5">
+      <c r="B26" s="93"/>
       <c r="C26" s="24" t="s">
         <v>45</v>
       </c>
@@ -2757,36 +2766,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C99FF1-F7A9-486A-A195-99E86AF9A398}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="113" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="113" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="13.09765625" customWidth="1"/>
-    <col min="4" max="4" width="46" style="97" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="46" style="85" customWidth="1"/>
     <col min="5" max="5" width="2.5" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="2" customWidth="1"/>
-    <col min="8" max="11" width="10.59765625" customWidth="1"/>
+    <col min="8" max="11" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A1" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
       <c r="H2" s="36">
         <v>0</v>
       </c>
@@ -2800,11 +2809,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.2" thickBot="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+    <row r="3" spans="1:11" ht="26.25" thickBot="1">
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="H3" s="38" t="s">
         <v>1</v>
       </c>
@@ -2818,11 +2827,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
     </row>
     <row r="5" spans="1:11">
       <c r="H5" s="14" t="s">
@@ -2832,12 +2841,12 @@
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="1:11" ht="18.600000000000001" thickBot="1">
+    <row r="6" spans="1:11" ht="19.5" thickBot="1">
       <c r="B6" s="3"/>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="86" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="45" t="s">
@@ -2850,14 +2859,14 @@
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
     </row>
-    <row r="7" spans="1:11" ht="157.19999999999999" thickTop="1" thickBot="1">
-      <c r="B7" s="77" t="s">
+    <row r="7" spans="1:11" ht="143.25" thickTop="1" thickBot="1">
+      <c r="B7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="87" t="s">
         <v>129</v>
       </c>
       <c r="F7" s="61" t="s">
@@ -2867,27 +2876,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="144.6" thickBot="1">
-      <c r="B8" s="77"/>
+    <row r="8" spans="1:11" ht="150.75" thickBot="1">
+      <c r="B8" s="99"/>
       <c r="C8" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="87" t="s">
         <v>127</v>
       </c>
       <c r="F8" s="61" t="s">
         <v>132</v>
       </c>
       <c r="H8" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="124.8">
-      <c r="B9" s="77"/>
-      <c r="C9" s="83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="126">
+      <c r="B9" s="99"/>
+      <c r="C9" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="87" t="s">
         <v>125</v>
       </c>
       <c r="F9" s="61" t="s">
@@ -2900,14 +2909,14 @@
     <row r="10" spans="1:11">
       <c r="H10" s="43"/>
     </row>
-    <row r="11" spans="1:11" ht="156.6" thickBot="1">
-      <c r="B11" s="77" t="s">
+    <row r="11" spans="1:11" ht="158.25" thickBot="1">
+      <c r="B11" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="87" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="61" t="s">
@@ -2917,12 +2926,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="156.6" thickBot="1">
-      <c r="B12" s="77"/>
-      <c r="C12" s="85" t="s">
+    <row r="12" spans="1:11" ht="142.5" thickBot="1">
+      <c r="B12" s="99"/>
+      <c r="C12" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="87" t="s">
         <v>124</v>
       </c>
       <c r="F12" s="61" t="s">
@@ -2932,12 +2941,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="124.8">
+    <row r="13" spans="1:11" ht="110.25">
       <c r="B13" s="65"/>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="88" t="s">
         <v>122</v>
       </c>
       <c r="F13" s="61" t="s">
@@ -2947,14 +2956,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="187.8" thickBot="1">
-      <c r="B15" s="77" t="s">
+    <row r="15" spans="1:11" ht="189.75" thickBot="1">
+      <c r="B15" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="87" t="s">
         <v>120</v>
       </c>
       <c r="F15" s="61" t="s">
@@ -2964,12 +2973,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="202.8">
-      <c r="B16" s="77"/>
-      <c r="C16" s="87" t="s">
+    <row r="16" spans="1:11" ht="189">
+      <c r="B16" s="99"/>
+      <c r="C16" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="87" t="s">
         <v>118</v>
       </c>
       <c r="F16" s="61" t="s">
@@ -2979,75 +2988,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="162.6" thickBot="1">
-      <c r="B18" s="77" t="s">
+    <row r="18" spans="2:9" ht="169.5" thickBot="1">
+      <c r="B18" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="87" t="s">
         <v>115</v>
       </c>
       <c r="F18" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="162">
-      <c r="B19" s="77"/>
-      <c r="C19" s="87" t="s">
+      <c r="H18" s="92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="168.75">
+      <c r="B19" s="99"/>
+      <c r="C19" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="87" t="s">
         <v>113</v>
       </c>
       <c r="F19" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="18.600000000000001" thickBot="1"/>
-    <row r="22" spans="2:9" ht="90.6" thickBot="1">
-      <c r="B22" s="77" t="s">
+      <c r="H19" s="92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="19.5" thickBot="1"/>
+    <row r="22" spans="2:9" ht="94.5" thickBot="1">
+      <c r="B22" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="97" t="s">
         <v>141</v>
       </c>
       <c r="H22" s="42">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="144.6" thickBot="1">
-      <c r="B23" s="77"/>
-      <c r="C23" s="88" t="s">
+    <row r="23" spans="2:9" ht="169.5" thickBot="1">
+      <c r="B23" s="99"/>
+      <c r="C23" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="74"/>
+      <c r="F23" s="100"/>
       <c r="H23" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="234.6" thickBot="1">
-      <c r="B24" s="77"/>
-      <c r="C24" s="89" t="s">
+    <row r="24" spans="2:9" ht="244.5" thickBot="1">
+      <c r="B24" s="99"/>
+      <c r="C24" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="90" t="s">
         <v>111</v>
       </c>
       <c r="F24" s="61" t="s">
@@ -3060,12 +3069,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="234">
-      <c r="B25" s="77"/>
-      <c r="C25" s="90" t="s">
+    <row r="25" spans="2:9" ht="243.75">
+      <c r="B25" s="99"/>
+      <c r="C25" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="90" t="s">
         <v>109</v>
       </c>
       <c r="F25" s="61" t="s">
@@ -3075,12 +3084,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="124.8">
-      <c r="B26" s="77"/>
-      <c r="C26" s="91" t="s">
+    <row r="26" spans="2:9" ht="126">
+      <c r="B26" s="99"/>
+      <c r="C26" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="89" t="s">
         <v>108</v>
       </c>
       <c r="F26" s="61" t="s">
@@ -3090,15 +3099,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="18.600000000000001" thickBot="1"/>
-    <row r="28" spans="2:9" ht="187.2">
-      <c r="B28" s="77" t="s">
+    <row r="27" spans="2:9" ht="19.5" thickBot="1"/>
+    <row r="28" spans="2:9" ht="189">
+      <c r="B28" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="89" t="s">
         <v>107</v>
       </c>
       <c r="F28" s="61" t="s">
@@ -3108,30 +3117,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="54">
-      <c r="B29" s="77"/>
-      <c r="C29" s="91" t="s">
+    <row r="29" spans="2:9" ht="56.25">
+      <c r="B29" s="99"/>
+      <c r="C29" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="99" t="s">
+      <c r="D29" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="75" t="s">
+      <c r="F29" s="101" t="s">
         <v>149</v>
       </c>
       <c r="H29" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="54.6" thickBot="1">
-      <c r="B30" s="77"/>
-      <c r="C30" s="93" t="s">
+    <row r="30" spans="2:9" ht="57" thickBot="1">
+      <c r="B30" s="99"/>
+      <c r="C30" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="76"/>
+      <c r="F30" s="102"/>
       <c r="H30" s="42">
         <v>3</v>
       </c>
@@ -3139,14 +3148,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="172.2" thickBot="1">
-      <c r="B32" s="77" t="s">
+    <row r="32" spans="2:9" ht="158.25" thickBot="1">
+      <c r="B32" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="89" t="s">
         <v>106</v>
       </c>
       <c r="F32" s="61" t="s">
@@ -3156,12 +3165,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="172.2" thickBot="1">
-      <c r="B33" s="77"/>
-      <c r="C33" s="95" t="s">
+    <row r="33" spans="2:10" ht="158.25" thickBot="1">
+      <c r="B33" s="99"/>
+      <c r="C33" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="101" t="s">
+      <c r="D33" s="89" t="s">
         <v>105</v>
       </c>
       <c r="F33" s="61" t="s">
@@ -3171,12 +3180,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="172.2">
-      <c r="B34" s="77"/>
-      <c r="C34" s="96" t="s">
+    <row r="34" spans="2:10" ht="174">
+      <c r="B34" s="99"/>
+      <c r="C34" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="103" t="s">
+      <c r="D34" s="91" t="s">
         <v>103</v>
       </c>
       <c r="F34" s="61" t="s">
@@ -3196,7 +3205,7 @@
       </c>
       <c r="H36">
         <f>SUM(H7:H9,H11:H13,H15:H16,H18:H19,H22:H26,H28:H30,H32:H34)/(21*3)</f>
-        <v>0.96825396825396826</v>
+        <v>0.98412698412698407</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -3205,21 +3214,21 @@
       </c>
       <c r="H37">
         <f>H36*20</f>
-        <v>19.365079365079364</v>
+        <v>19.68253968253968</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B28:B30"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1" xr:uid="{F59656B3-E3EF-41FC-93EB-2CD6422D6BE2}"/>
@@ -3255,7 +3264,7 @@
       <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="49" t="s">
@@ -3277,17 +3286,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18.600000000000001">
+    <row r="7" spans="2:7" ht="18.75">
       <c r="B7" s="47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16.2" thickBot="1">
+    <row r="8" spans="2:7" ht="16.5" thickBot="1">
       <c r="B8" s="48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="16.2" thickBot="1">
+    <row r="9" spans="2:7" ht="16.5" thickBot="1">
       <c r="B9" s="32">
         <v>0</v>
       </c>
@@ -3301,7 +3310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="31.8" thickBot="1">
+    <row r="10" spans="2:7" ht="32.25" thickBot="1">
       <c r="B10" s="34" t="s">
         <v>1</v>
       </c>
@@ -3315,109 +3324,109 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="69.900000000000006" customHeight="1">
-      <c r="B13" s="80" t="s">
+    <row r="13" spans="2:7" ht="69.95" customHeight="1">
+      <c r="B13" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="70"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3441,19 +3450,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC989ECCC8B7AB4EA23CFB69585B4A70" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="916e6eb0d82bab40262ee748395e3d30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="188a5053-cf46-4829-a43d-8f4e43557bfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e968e44d62efd30be41830a10ee7cbce" ns2:_="">
     <xsd:import namespace="188a5053-cf46-4829-a43d-8f4e43557bfc"/>
@@ -3591,6 +3594,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3601,22 +3610,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{758E0C9F-22C5-4206-988A-ED4D0E9DA74C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="188a5053-cf46-4829-a43d-8f4e43557bfc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BFE91A6-F782-4B1A-AC0B-52715868B243}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3634,6 +3627,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{758E0C9F-22C5-4206-988A-ED4D0E9DA74C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="188a5053-cf46-4829-a43d-8f4e43557bfc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBEF48E-FC36-4C6E-9A65-4F854EFC868A}">
   <ds:schemaRefs>
